--- a/DATA_goal/Junction_Flooding_334.xlsx
+++ b/DATA_goal/Junction_Flooding_334.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45015.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.08</v>
+        <v>40.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.28</v>
+        <v>32.82</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.8</v>
+        <v>47.99</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.74</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.1</v>
+        <v>20.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.15</v>
+        <v>221.55</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.18</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.76</v>
+        <v>27.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.43</v>
+        <v>24.31</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.13</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.56</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.26</v>
+        <v>42.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.65</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45015.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.48</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.22</v>
+        <v>32.15</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.6</v>
+        <v>25.99</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.57</v>
+        <v>45.74</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.47</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.42</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.41</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.07</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>17.01</v>
+        <v>170.08</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.26</v>
+        <v>32.64</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.16</v>
+        <v>21.62</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.22</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.22</v>
+        <v>22.15</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.1</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.32</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.16</v>
+        <v>41.64</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.94</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45015.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.32</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.23</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.79</v>
+        <v>17.87</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.42</v>
+        <v>44.23</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.73</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.05</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.79</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.56</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45015.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.07</v>
+        <v>40.69</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.33</v>
+        <v>33.28</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.34</v>
+        <v>53.4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.84</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.08</v>
+        <v>20.81</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.58</v>
+        <v>215.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.09</v>
+        <v>40.89</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.74</v>
+        <v>27.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.64</v>
+        <v>26.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.64</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.09</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.82</v>
+        <v>48.2</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_334.xlsx
+++ b/DATA_goal/Junction_Flooding_334.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,28 +655,28 @@
         <v>45015.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.9</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.04</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.81</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.82</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.12</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.99</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>9.710000000000001</v>
@@ -685,19 +685,19 @@
         <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.08</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.74</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.83</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.99</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>12.85</v>
@@ -706,52 +706,52 @@
         <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>221.55</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.55</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.06</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.31</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.13</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.05</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.56</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.56</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
@@ -759,100 +759,100 @@
         <v>45015.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.89</v>
+        <v>14.893</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.48</v>
+        <v>10.475</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.76</v>
+        <v>1.759</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>32.15</v>
+        <v>32.151</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.99</v>
+        <v>25.989</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.72</v>
+        <v>11.721</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>45.74</v>
+        <v>45.741</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.77</v>
+        <v>7.768</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.47</v>
+        <v>11.471</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>12.86</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.42</v>
+        <v>13.422</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.74</v>
+        <v>3.745</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>16.41</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.07</v>
+        <v>10.065</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.542</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>1.02</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>170.08</v>
+        <v>170.084</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>32.64</v>
+        <v>32.639</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>21.62</v>
+        <v>21.622</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.22</v>
+        <v>11.221</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.11</v>
+        <v>2.105</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>22.15</v>
+        <v>22.154</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>8.614000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.1</v>
+        <v>10.096</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.32</v>
+        <v>13.324</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>41.64</v>
+        <v>41.636</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.94</v>
+        <v>5.944</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>13.45</v>
@@ -863,103 +863,103 @@
         <v>45015.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.32</v>
+        <v>4.324</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.78</v>
+        <v>2.784</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.916</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>9.289999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.23</v>
+        <v>7.229</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.87</v>
+        <v>17.873</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.24</v>
+        <v>5.236</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.18</v>
+        <v>2.183</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.04</v>
+        <v>3.038</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.73</v>
+        <v>3.727</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.81</v>
+        <v>3.812</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.1</v>
+        <v>1.096</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.38</v>
+        <v>3.384</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>4.73</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.13</v>
+        <v>3.129</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.949</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>44.23</v>
+        <v>44.226</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>9.73</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.12</v>
+        <v>3.123</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>6.29</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.17</v>
+        <v>3.174</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.843</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>8.129</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.76</v>
+        <v>2.759</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.62</v>
+        <v>2.622</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.79</v>
+        <v>3.795</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>16.56</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.63</v>
+        <v>1.632</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.91</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45015.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.24</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.37</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_334.xlsx
+++ b/DATA_goal/Junction_Flooding_334.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -967,103 +967,207 @@
         <v>45015.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.74</v>
+        <v>18.737</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.73</v>
+        <v>13.733</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.18</v>
+        <v>1.183</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.69</v>
+        <v>40.691</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.28</v>
+        <v>33.278</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.74</v>
+        <v>14.745</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>53.4</v>
+        <v>53.403</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.69</v>
+        <v>22.687</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.02</v>
+        <v>10.019</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.84</v>
+        <v>14.841</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.34</v>
+        <v>16.337</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.19</v>
+        <v>17.186</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.71</v>
+        <v>4.708</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.81</v>
+        <v>20.808</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.41</v>
+        <v>12.409</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.833</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>215.84</v>
+        <v>215.843</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>40.89</v>
+        <v>40.891</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.43</v>
+        <v>27.429</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.4</v>
+        <v>14.396</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.23</v>
+        <v>2.228</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.38</v>
+        <v>26.385</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.64</v>
+        <v>10.639</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.5</v>
+        <v>12.499</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.09</v>
+        <v>17.092</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>48.2</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.6</v>
+        <v>7.598</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45015.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.24</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>17.37</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_334.xlsx
+++ b/DATA_goal/Junction_Flooding_334.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -967,207 +967,103 @@
         <v>45015.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.737</v>
+        <v>18.74</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.733</v>
+        <v>13.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.183</v>
+        <v>1.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.691</v>
+        <v>40.69</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.278</v>
+        <v>33.28</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.745</v>
+        <v>14.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>53.403</v>
+        <v>53.4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.687</v>
+        <v>22.69</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.019</v>
+        <v>10.02</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.841</v>
+        <v>14.84</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.337</v>
+        <v>16.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.186</v>
+        <v>17.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.708</v>
+        <v>4.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.663</v>
+        <v>14.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.808</v>
+        <v>20.81</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.409</v>
+        <v>12.41</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.833</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.783</v>
+        <v>0.78</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>215.843</v>
+        <v>215.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>40.891</v>
+        <v>40.89</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.534</v>
+        <v>13.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.429</v>
+        <v>27.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.396</v>
+        <v>14.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.228</v>
+        <v>2.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.385</v>
+        <v>26.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.955</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.639</v>
+        <v>10.64</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.499</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.092</v>
+        <v>17.09</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>48.2</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.598</v>
+        <v>7.6</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45015.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.24</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.37</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.91</v>
       </c>
     </row>
   </sheetData>
